--- a/Documentación/Migración_variables.xlsx
+++ b/Documentación/Migración_variables.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Migración\copowerDev\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E411921E-0C31-46D3-BF7F-9A25323303F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADC3691-81F5-4CE6-BFAF-237D7C709F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EAC4417-CC77-41EE-9BDE-8DF72EC16E10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9EAC4417-CC77-41EE-9BDE-8DF72EC16E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Observaciones" sheetId="2" r:id="rId2"/>
+    <sheet name="Por definir" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -838,14 +839,14 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
     <col min="4" max="4" width="111.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1004,7 +1005,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -1162,7 +1163,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentación/Migración_variables.xlsx
+++ b/Documentación/Migración_variables.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Migración\copowerDev\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADC3691-81F5-4CE6-BFAF-237D7C709F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D8171C-F50B-4AE6-ADF8-705140D89932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9EAC4417-CC77-41EE-9BDE-8DF72EC16E10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{9EAC4417-CC77-41EE-9BDE-8DF72EC16E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Por definir" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>LÍNEA</t>
   </si>
@@ -268,6 +267,10 @@
   </si>
   <si>
     <t>FD: Se le asigna a la valor de MIX.ReceiverTemperature.Value</t>
+  </si>
+  <si>
+    <t>Variable/
+Librería</t>
   </si>
 </sst>
 </file>
@@ -323,7 +326,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,12 +336,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -499,8 +496,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,9 +838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BA3744-FF83-472B-8903-67DE161B6E63}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,27 +1162,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB7D715-0D9B-4990-80D5-6CE6EE72F2E7}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B16:B17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
+      <c r="C1" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
